--- a/Заказы.xlsx
+++ b/Заказы.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E29"/>
+  <dimension ref="A1:E46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,8 +461,10 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
-        <v>79969519770</v>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>79969519770</t>
+        </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -484,8 +486,10 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="n">
-        <v>79936228575</v>
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>79936228575</t>
+        </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -507,8 +511,10 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="n">
-        <v>79936228575</v>
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>79936228575</t>
+        </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -530,8 +536,10 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="n">
-        <v>79936228575</v>
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>79936228575</t>
+        </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -553,8 +561,10 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n">
-        <v>79936228575</v>
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>79936228575</t>
+        </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -576,8 +586,10 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="n">
-        <v>79936228575</v>
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>79936228575</t>
+        </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -599,8 +611,10 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="n">
-        <v>79936228575</v>
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>79936228575</t>
+        </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -622,8 +636,10 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="n">
-        <v>79936228575</v>
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>79936228575</t>
+        </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -645,8 +661,10 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="n">
-        <v>79936228575</v>
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>79936228575</t>
+        </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -668,8 +686,10 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="n">
-        <v>79936228575</v>
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>79936228575</t>
+        </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -691,8 +711,10 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="n">
-        <v>79936228575</v>
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>79936228575</t>
+        </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -714,8 +736,10 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="n">
-        <v>79936228575</v>
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>79936228575</t>
+        </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -737,8 +761,10 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="n">
-        <v>79936228575</v>
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>79936228575</t>
+        </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -760,8 +786,10 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="n">
-        <v>79936228575</v>
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>79936228575</t>
+        </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -783,8 +811,10 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="n">
-        <v>79936228575</v>
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>79936228575</t>
+        </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -806,8 +836,10 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="n">
-        <v>79111289713</v>
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>79111289713</t>
+        </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -829,8 +861,10 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="n">
-        <v>79936228575</v>
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>79936228575</t>
+        </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -852,8 +886,10 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="n">
-        <v>79936228575</v>
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>79936228575</t>
+        </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -875,8 +911,10 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="n">
-        <v>79936228575</v>
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>79936228575</t>
+        </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -898,8 +936,10 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="n">
-        <v>79936228575</v>
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>79936228575</t>
+        </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -921,8 +961,10 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="n">
-        <v>79936228575</v>
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>79936228575</t>
+        </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -944,8 +986,10 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="n">
-        <v>79936228575</v>
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>79936228575</t>
+        </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -967,8 +1011,10 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="n">
-        <v>79936228575</v>
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>79936228575</t>
+        </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -990,8 +1036,10 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="n">
-        <v>79111289713</v>
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>79111289713</t>
+        </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -1013,8 +1061,10 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="n">
-        <v>79111289713</v>
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>79111289713</t>
+        </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -1036,8 +1086,10 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="n">
-        <v>79111289713</v>
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>79111289713</t>
+        </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
@@ -1059,8 +1111,10 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="n">
-        <v>79969519770</v>
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>79969519770</t>
+        </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
@@ -1103,6 +1157,431 @@
       <c r="E29" t="inlineStr">
         <is>
           <t>Не оплачено</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>79778690680</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>04.02.2025</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Комплексный обед</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>400</v>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Оплачено</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>79778690680</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>04.02.2025</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Компот</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>50</v>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Оплачено</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>79778690680</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>04.02.2025</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Цезарь</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>150</v>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Оплачено</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>79936228575</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>07.02.2025</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Комплексный обед</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>400</v>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Оплачено</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>79936228575</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>07.02.2025</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Комплексный обед</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>400</v>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Оплачено</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>79936228575</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>06.02.2025</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Комплексный обед</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>400</v>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Оплачено</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>79936228575</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>07.02.2025</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Чай</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>50</v>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Оплачено</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>79936228575</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>07.02.2025</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Цезарь</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>150</v>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Оплачено</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>79936228575</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>07.02.2025</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Чай</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>50</v>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Оплачено</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>79936228575</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>06.02.2025</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Чай</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>50</v>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Оплачено</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>79936228575</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>06.02.2025</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Чай</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>50</v>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>Оплачено</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>79936228575</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>07.02.2025</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Чай</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>50</v>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>Оплачено</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>79936228575</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>07.02.2025</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Чай</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>50</v>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>Оплачено</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>79936228575</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>07.02.2025</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Чай</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
+        <v>50</v>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>Оплачено</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>79936228575</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>06.02.2025</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Комплексный обед</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
+        <v>400</v>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>Оплачено</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>79936228575</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>06.02.2025</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Чай</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
+        <v>50</v>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>Оплачено</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>79936228575</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>06.02.2025</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Чай</t>
+        </is>
+      </c>
+      <c r="D46" t="n">
+        <v>50</v>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>Оплачено</t>
         </is>
       </c>
     </row>
